--- a/Oracle/주소록 샘플 데이터(2023-06-30).xlsx
+++ b/Oracle/주소록 샘플 데이터(2023-06-30).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505202\Documents\workspace\DBMS\Oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F137CCE0-9881-42C7-967F-548B6039A302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1478218-EEC9-4369-B680-E1245EBC19C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5547,8 +5547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8CC4D-0076-4956-AE6F-036778B6ACE1}">
   <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
